--- a/biology/Médecine/Pervenche_de_Madagascar/Pervenche_de_Madagascar.xlsx
+++ b/biology/Médecine/Pervenche_de_Madagascar/Pervenche_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Catharanthus roseus
 La Pervenche de Madagascar (Catharanthus roseus) est une espèce de plantes à fleurs de la famille des Apocynacées. C'est une plante herbacée pérenne originaire et endémique de Madagascar
-Elle est largement cultivée et naturalisée dans les régions tropicales et subtropicales[1]. Elle est notamment connue pour contenir de la vincristine et de la vinblastine, des molécules utilisées dans le traitement chimiothérapeutique de nombreux cancers.
+Elle est largement cultivée et naturalisée dans les régions tropicales et subtropicales. Elle est notamment connue pour contenir de la vincristine et de la vinblastine, des molécules utilisées dans le traitement chimiothérapeutique de nombreux cancers.
 </t>
         </is>
       </c>
@@ -513,17 +525,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par le naturaliste suédois Carl von Linné en 1759, sous le nom initial de Vinca rosea[2]. Révisée par le botaniste britannique George Don en 1837 qui l'a classée dans le genre Catharanthus.
-Synonymes
-Vinca rosea L. basionyme
-Ammocallis rosea (L.) Small [3]
-Lochnera rosea (L.) Reichenb. ex Spach [4]
-Pervinca rosea (L.) Gaterau [5]
-Vinca speciosa Salisb[6].
-Noms vernaculaires
-Elle est aussi appelée en créole Kaka poul ou Zèb a sosyé aux Antilles françaises et Guillemette, Rose amère, Vinca à La Réunion et Saponaire, Pervenche à l'Ile Maurice.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par le naturaliste suédois Carl von Linné en 1759, sous le nom initial de Vinca rosea. Révisée par le botaniste britannique George Don en 1837 qui l'a classée dans le genre Catharanthus.
 </t>
         </is>
       </c>
@@ -549,24 +555,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxinomie</t>
+          <t>Historique et dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Deux variétés sont reconnues :
-Catharanthus roseus var. roseus
-Synonymie pour cette variété
-Catharanthus roseus var. angustus Steenis ex Bakhuizen f[7].
-Catharanthus roseus var. albus G.Don [8]
-Catharanthus roseus var. occellatus G.Don[9]
-Catharanthus roseus var. nanusMarkgr[10].
-Lochnera rosea f. alba (G.Don) Woodson[11]
-Lochnera rosea var. ocellata (G.Don) Woodson
-Catharanthus roseus var. angustus (Steenis) Bakh. f[12].
-Synonymie pour cette variété
-Catharanthus roseus var. nanus Markgr[13].
-Lochnera rosea var. angusta Steenis [14]</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vinca rosea L. basionyme
+Ammocallis rosea (L.) Small 
+Lochnera rosea (L.) Reichenb. ex Spach 
+Pervinca rosea (L.) Gaterau 
+Vinca speciosa Salisb.</t>
         </is>
       </c>
     </row>
@@ -591,10 +595,93 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est aussi appelée en créole Kaka poul ou Zèb a sosyé aux Antilles françaises et Guillemette, Rose amère, Vinca à La Réunion et Saponaire, Pervenche à l'Ile Maurice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux variétés sont reconnues :
+Catharanthus roseus var. roseus
+Synonymie pour cette variété
+Catharanthus roseus var. angustus Steenis ex Bakhuizen f.
+Catharanthus roseus var. albus G.Don 
+Catharanthus roseus var. occellatus G.Don
+Catharanthus roseus var. nanusMarkgr.
+Lochnera rosea f. alba (G.Don) Woodson
+Lochnera rosea var. ocellata (G.Don) Woodson
+Catharanthus roseus var. angustus (Steenis) Bakh. f.
+Synonymie pour cette variété
+Catharanthus roseus var. nanus Markgr.
+Lochnera rosea var. angusta Steenis </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau persistant ou une plante herbacée, d'odeur désagréable, pouvant mesurer jusqu'à 1 m de hauteur.
 Les feuilles sont entières, ovales à oblongues, 2,5 à 9 cm de long et 1 à 3,5 cm de large, vert brillant, glabres, avec une nervure médiane pâle et un court pétiole de 1 à 2 cm de long ; elles sont disposées en paire opposées.
@@ -608,31 +695,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pervenche_de_Madagascar</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce endémique de Madagascar pousse aussi bien dans les zones humides que dans les zones sèches, presque arides, du niveau de la mer jusqu'à 1 500 mètres d'altitude.
 Elle se rencontre dans les prairies, les cultures, les forêts claires et le long des chemins.
@@ -641,76 +730,150 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pervenche_de_Madagascar</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Propriétés[15]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les parties aériennes de la Pervenche de Madagascar renferment de 0,2 à 1 % d’alcaloïdes. Les composés intéressants sur le plan pharmacologique sont des alcaloïdes formés par le couplage de deux alcaloïdes monomères, un indole et un dihydroindole. Il a été isolé 71 alcaloïdes différents dont la vincristine, la vinblastine, la leurosidine etc. Leur complexité n'a pas permis pour l'instant de les synthétiser en laboratoire. Les feuilles sont par ailleurs très riches en acide-phénols (96 % d’acide 5-O-caffeoylquinique) et en flavonoïdes[16].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parties aériennes de la Pervenche de Madagascar renferment de 0,2 à 1 % d’alcaloïdes. Les composés intéressants sur le plan pharmacologique sont des alcaloïdes formés par le couplage de deux alcaloïdes monomères, un indole et un dihydroindole. Il a été isolé 71 alcaloïdes différents dont la vincristine, la vinblastine, la leurosidine etc. Leur complexité n'a pas permis pour l'instant de les synthétiser en laboratoire. Les feuilles sont par ailleurs très riches en acide-phénols (96 % d’acide 5-O-caffeoylquinique) et en flavonoïdes.
 La racine séchée contient de l'ajmalicine, molécule anti-hypertensive, servant à améliorer la fonction cérébrale du sujet âgé.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pervenche_de_Madagascar</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est utilisée à des fins thérapeutiques et comme une plante ornementale.
-Médicinales
-Dans la médecine traditionnelle malgache, les pervenches sont utilisées en décoction pour soigner les problèmes de foie, pour traiter l'hypertension et pour atténuer les diabètes[17].
-En médecine traditionnelle chinoise et en médecine ayurvédique, des extraits de celle-ci ont été utilisés pour traiter de nombreuses maladies, y compris le diabète, le paludisme et la maladie de Hodgkin[18].
-Les principes actifs (vinblastine et vincristine) extraits de la plante sont des antimitotiques, permettant de produire des médicaments contre le cancer[19], notamment les lymphomes (hodgkiniens et non-hodgkiniens) et les leucémies aiguës[20].
-En format injection ou gélules, la pervenche de Madagascar est utilisée dans la phitoterapie pour  Soigner les cancer du sein, cancer du col de l'utérus[21].
-L'utilisation de cette plante et les dépôts récents de brevets sur C. roseus par l'industrie pharmaceutique occidentale, sans compensation pour les autochtones, a conduit à des accusations de biopiraterie[22].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Médicinales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la médecine traditionnelle malgache, les pervenches sont utilisées en décoction pour soigner les problèmes de foie, pour traiter l'hypertension et pour atténuer les diabètes.
+En médecine traditionnelle chinoise et en médecine ayurvédique, des extraits de celle-ci ont été utilisés pour traiter de nombreuses maladies, y compris le diabète, le paludisme et la maladie de Hodgkin.
+Les principes actifs (vinblastine et vincristine) extraits de la plante sont des antimitotiques, permettant de produire des médicaments contre le cancer, notamment les lymphomes (hodgkiniens et non-hodgkiniens) et les leucémies aiguës.
+En format injection ou gélules, la pervenche de Madagascar est utilisée dans la phitoterapie pour  Soigner les cancer du sein, cancer du col de l'utérus.
+L'utilisation de cette plante et les dépôts récents de brevets sur C. roseus par l'industrie pharmaceutique occidentale, sans compensation pour les autochtones, a conduit à des accusations de biopiraterie.
 La plante peut être dangereuse si elle est consommée par voie orale. Elle peut être hallucinogène, et est citée (sous son synonyme Vinca rosea) dans le « Louisiana State Act 159 (en) ». Comme la plupart des molécules ayant une activité antitumorale, les alcaloïdes binaires de la pervenche de Madagascar ont une toxicité élevée.
 C. roseus est utilisé en phytopathologie à titre expérimental comme hôte pour les phytoplasmes. En effet, l'espèce est facile à infecter par une grande majorité de phytoplasmes, et a souvent des symptômes très distinctifs tels que phyllodie et réduction significative de la taille des feuilles.
 La décoction de toutes les parties de Catharanthus roseus est réputée comme agent hypoglycémique par voie orale. Elle se prend aussi pour traiter le paludisme, la dengue, la diarrhée, le diabète, le cancer et les maladies de peau.
-Ornementales
-Comme plante ornementale, elle est populaire dans les jardins tropicaux et subtropicaux où les températures ne tombent jamais sous 5 à 7 °C. Appréciée pour sa résistance en terre aride et pauvre, elle est en outre connue pour sa longue durée de floraison, tout au long de l'année dans des conditions climatiques tropicales, et du printemps à la fin de l'automne dans les climats tempérés chauds.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ornementales</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme plante ornementale, elle est populaire dans les jardins tropicaux et subtropicaux où les températures ne tombent jamais sous 5 à 7 °C. Appréciée pour sa résistance en terre aride et pauvre, elle est en outre connue pour sa longue durée de floraison, tout au long de l'année dans des conditions climatiques tropicales, et du printemps à la fin de l'automne dans les climats tempérés chauds.
 Elle apprécie le plein soleil et un sol bien drainé. De nombreux cultivars ont 
 été sélectionnés, pour les variations de la couleur des fleurs (blanc, mauve, pêche, rouge et écarlate-orange), et également pour leur tolérance à des conditions de culture plus froides dans les régions tempérées. Parmi les cultivars, on peut citer 'Albus' (fleurs blanches), « Grape Cooler » (rose ; tolérant au froid), le Groupe ocellatus (différentes couleurs), et « Peppermint Cooler » (blanc avec un centre rouge ; tolérant au froid)
 .
@@ -718,31 +881,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pervenche_de_Madagascar</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pervenche_de_Madagascar</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Alcaloïdes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante contient les alcaloïdes suivants :
 Vincristine, utilisé dans la chimiothérapie du cancer.
